--- a/replication/results/figureA4_multiple_imputation.xlsx
+++ b/replication/results/figureA4_multiple_imputation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>hour</t>
   </si>
@@ -34,49 +34,52 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.44)</t>
-  </si>
-  <si>
-    <t>(0.17)</t>
-  </si>
-  <si>
-    <t>(0.37)</t>
-  </si>
-  <si>
-    <t>(0.16)</t>
-  </si>
-  <si>
-    <t>(0.35)</t>
-  </si>
-  <si>
-    <t>(0.42)</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>(0.63)</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t>(0.65)</t>
-  </si>
-  <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t>(0.56)</t>
-  </si>
-  <si>
-    <t>(0.99)</t>
-  </si>
-  <si>
-    <t>(1.62)</t>
-  </si>
-  <si>
-    <t>(0.92)</t>
+    <t>(0.64)</t>
+  </si>
+  <si>
+    <t>(0.4)</t>
+  </si>
+  <si>
+    <t>(0.61)</t>
+  </si>
+  <si>
+    <t>(0.41)</t>
+  </si>
+  <si>
+    <t>(0.6)</t>
+  </si>
+  <si>
+    <t>(0.62)</t>
+  </si>
+  <si>
+    <t>(0.43)</t>
+  </si>
+  <si>
+    <t>(0.79)</t>
+  </si>
+  <si>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>(0.82)</t>
+  </si>
+  <si>
+    <t>(0.5)</t>
+  </si>
+  <si>
+    <t>(0.75)</t>
+  </si>
+  <si>
+    <t>(1.02)</t>
+  </si>
+  <si>
+    <t>(0.76)</t>
+  </si>
+  <si>
+    <t>(1.29)</t>
+  </si>
+  <si>
+    <t>(0.97)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -623,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
